--- a/data/trans_orig/P1401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3708</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10210</v>
+        <v>9403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01258101665595316</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003267860307336232</v>
+        <v>0.003246820567864554</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03464166633204439</v>
+        <v>0.03190283959037484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +764,19 @@
         <v>8277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3284</v>
+        <v>3261</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16612</v>
+        <v>17260</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02881418128948544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01143423055990718</v>
+        <v>0.01135328242912227</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05783049214163799</v>
+        <v>0.0600872566729455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -785,19 +785,19 @@
         <v>11985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6078</v>
+        <v>6372</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22670</v>
+        <v>20034</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02059309799002887</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01044332029537848</v>
+        <v>0.01094832782216293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03895250647718648</v>
+        <v>0.0344231811613199</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>291030</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284528</v>
+        <v>285335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293775</v>
+        <v>293781</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9874189833440469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9653583336679555</v>
+        <v>0.9680971604096251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9967321396926637</v>
+        <v>0.9967531794321355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -835,19 +835,19 @@
         <v>278968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270633</v>
+        <v>269985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283961</v>
+        <v>283984</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9711858187105146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9421695078583621</v>
+        <v>0.9399127433270545</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9885657694400929</v>
+        <v>0.9886467175708777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -856,19 +856,19 @@
         <v>569998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559313</v>
+        <v>561949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575905</v>
+        <v>575611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9794069020099712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9610474935228134</v>
+        <v>0.9655768188386801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9895566797046216</v>
+        <v>0.9890516721778371</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>3942</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9011</v>
+        <v>10019</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007797271571552896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001950890786281461</v>
+        <v>0.001967670705928467</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01782564203703272</v>
+        <v>0.01981944416027357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -981,19 +981,19 @@
         <v>6437</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2216</v>
+        <v>2230</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14973</v>
+        <v>13757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01229037653388403</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004231393831319689</v>
+        <v>0.00425672367175365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02858776660865454</v>
+        <v>0.02626648004252232</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1002,19 +1002,19 @@
         <v>10379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4931</v>
+        <v>4937</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19762</v>
+        <v>18846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0100836301003062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004790379242300749</v>
+        <v>0.004796777581934363</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01919982529247559</v>
+        <v>0.0183097875294287</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>501585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>496516</v>
+        <v>495508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>504541</v>
+        <v>504532</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9922027284284471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9821743579629677</v>
+        <v>0.9801805558397264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980491092137186</v>
+        <v>0.9980323292940715</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>475</v>
@@ -1052,19 +1052,19 @@
         <v>517328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>508792</v>
+        <v>510008</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521549</v>
+        <v>521535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.987709623466116</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9714122333913462</v>
+        <v>0.973733519957478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9957686061686803</v>
+        <v>0.9957432763282463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -1073,19 +1073,19 @@
         <v>1018913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1009530</v>
+        <v>1010446</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1024361</v>
+        <v>1024355</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9899163698996938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9808001747075245</v>
+        <v>0.9816902124705711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9952096207576991</v>
+        <v>0.9952032224180657</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>6278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2116</v>
+        <v>2049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15428</v>
+        <v>14413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01937385293779787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006530877529828517</v>
+        <v>0.00632336359297911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04761028477433901</v>
+        <v>0.04447933078436284</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1198,19 +1198,19 @@
         <v>6171</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2070</v>
+        <v>2929</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13163</v>
+        <v>13270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01809563557790714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00607053120120785</v>
+        <v>0.008587710793473181</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03859963297398702</v>
+        <v>0.03891360086030016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1219,19 +1219,19 @@
         <v>12449</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6280</v>
+        <v>6216</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22584</v>
+        <v>22495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0187184327409426</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009442264539293645</v>
+        <v>0.009347042137792538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03395701472549217</v>
+        <v>0.03382429345740538</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>317768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308618</v>
+        <v>309633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321930</v>
+        <v>321997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9806261470622021</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9523897152256613</v>
+        <v>0.9555206692156373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934691224701715</v>
+        <v>0.993676636407021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -1269,19 +1269,19 @@
         <v>334849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327857</v>
+        <v>327750</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338950</v>
+        <v>338091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9819043644220928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9614003670260131</v>
+        <v>0.9610863991396998</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939294687987922</v>
+        <v>0.9914122892065269</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -1290,19 +1290,19 @@
         <v>652617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>642482</v>
+        <v>642571</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658786</v>
+        <v>658850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9812815672590574</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9660429852745079</v>
+        <v>0.966175706542594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9905577354607064</v>
+        <v>0.9906529578622074</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>3016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8495</v>
+        <v>8125</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008063640671764042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002584367928389831</v>
+        <v>0.002587916785191211</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02271428507001122</v>
+        <v>0.0217264434873026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1415,19 +1415,19 @@
         <v>11640</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6481</v>
+        <v>6082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21110</v>
+        <v>20094</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02992613057557133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01666263221305918</v>
+        <v>0.01563738338740766</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05427334175370728</v>
+        <v>0.05166078742396153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1436,19 +1436,19 @@
         <v>14655</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8911</v>
+        <v>7948</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25649</v>
+        <v>25152</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01920935855992534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0116799810135812</v>
+        <v>0.01041714380958257</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03361931354247444</v>
+        <v>0.03296778664028036</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>370966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365487</v>
+        <v>365857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>373015</v>
+        <v>373014</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991936359328236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9772857149299887</v>
+        <v>0.9782735565126974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9974156320716102</v>
+        <v>0.9974120832148088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>360</v>
@@ -1486,19 +1486,19 @@
         <v>377311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367841</v>
+        <v>368857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382470</v>
+        <v>382869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9700738694244286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9457266582462928</v>
+        <v>0.9483392125760385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9833373677869408</v>
+        <v>0.9843626166125924</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -1507,19 +1507,19 @@
         <v>748278</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>737284</v>
+        <v>737781</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>754022</v>
+        <v>754985</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9807906414400747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9663806864575253</v>
+        <v>0.9670322133597191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9883200189864186</v>
+        <v>0.9895828561904173</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>5501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1150</v>
+        <v>2028</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13535</v>
+        <v>14379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02587431043832776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005408063881250482</v>
+        <v>0.009537068905007984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06365838256646848</v>
+        <v>0.06762724821853594</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1632,19 +1632,19 @@
         <v>3785</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10724</v>
+        <v>11736</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01723486850703934</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004458495932706507</v>
+        <v>0.004381359904236748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04883521092906425</v>
+        <v>0.05344387808233324</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1653,19 +1653,19 @@
         <v>9286</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3865</v>
+        <v>4071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19179</v>
+        <v>19522</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02148489809304781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008942170878986305</v>
+        <v>0.009418345054035139</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0443739856345747</v>
+        <v>0.04516858538407615</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>207117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199083</v>
+        <v>198239</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211468</v>
+        <v>210590</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9741256895616722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9363416174335315</v>
+        <v>0.9323727517814638</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9945919361187495</v>
+        <v>0.9904629310949921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>209</v>
@@ -1703,19 +1703,19 @@
         <v>215806</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208867</v>
+        <v>207855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218612</v>
+        <v>218629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9827651314929606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9511647890709364</v>
+        <v>0.9465561219176664</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9955415040672936</v>
+        <v>0.9956186400957632</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>401</v>
@@ -1724,19 +1724,19 @@
         <v>422923</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>413030</v>
+        <v>412687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428344</v>
+        <v>428138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9785151019069522</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9556260143654258</v>
+        <v>0.9548314146159239</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9910578291210137</v>
+        <v>0.990581654945965</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>4251</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10630</v>
+        <v>10672</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01551665905272715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003882835731101394</v>
+        <v>0.003860210766862227</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03879757710159672</v>
+        <v>0.03895024265308957</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1849,19 +1849,19 @@
         <v>3096</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8922</v>
+        <v>9139</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01113265412870544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003604254756377853</v>
+        <v>0.003595569958202466</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03208408663408241</v>
+        <v>0.03286400029261979</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1870,19 +1870,19 @@
         <v>7347</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3143</v>
+        <v>3161</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14296</v>
+        <v>14698</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01330831912938702</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005693727013558053</v>
+        <v>0.005726307972157366</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02589406984712042</v>
+        <v>0.02662255988882935</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>269730</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263351</v>
+        <v>263309</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272917</v>
+        <v>272923</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9844833409472729</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.961202422898403</v>
+        <v>0.9610497573469102</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9961171642688986</v>
+        <v>0.9961397892331378</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -1920,19 +1920,19 @@
         <v>275000</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269174</v>
+        <v>268957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277094</v>
+        <v>277096</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9888673458712945</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9679159133659159</v>
+        <v>0.9671359997073801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9963957452436222</v>
+        <v>0.9964044300417975</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -1941,19 +1941,19 @@
         <v>544730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537781</v>
+        <v>537379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>548934</v>
+        <v>548916</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.986691680870613</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9741059301528817</v>
+        <v>0.9733774401111709</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.994306272986442</v>
+        <v>0.9942736920278427</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>4965</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1951</v>
+        <v>1956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11811</v>
+        <v>10657</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007491365530070671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002943724912254493</v>
+        <v>0.002951379383241975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01781976136360009</v>
+        <v>0.01607841146140461</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2066,19 +2066,19 @@
         <v>19182</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11585</v>
+        <v>11355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30996</v>
+        <v>30410</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0276457262839108</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01669702187216734</v>
+        <v>0.01636505169645281</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0446724352456468</v>
+        <v>0.04382743263598798</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2087,19 +2087,19 @@
         <v>24147</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15156</v>
+        <v>15827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36167</v>
+        <v>36461</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01779929738475826</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01117190342517766</v>
+        <v>0.01166620003220917</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02665922812895615</v>
+        <v>0.02687566584773603</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>657823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>650977</v>
+        <v>652131</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660837</v>
+        <v>660832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9925086344699293</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9821802386363998</v>
+        <v>0.983921588538596</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9970562750877455</v>
+        <v>0.997048620616758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>619</v>
@@ -2137,19 +2137,19 @@
         <v>674671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>662857</v>
+        <v>663443</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>682268</v>
+        <v>682498</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9723542737160892</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.955327564754353</v>
+        <v>0.9561725673640118</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9833029781278325</v>
+        <v>0.9836349483035471</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1232</v>
@@ -2158,19 +2158,19 @@
         <v>1332494</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1320474</v>
+        <v>1320180</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1341485</v>
+        <v>1340814</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9822007026152417</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9733407718710438</v>
+        <v>0.973124334152264</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9888280965748224</v>
+        <v>0.9883337999677908</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>7504</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3238</v>
+        <v>3408</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15326</v>
+        <v>15130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009631393980455573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004155880785134926</v>
+        <v>0.004374657450678898</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01967088082824329</v>
+        <v>0.01942051206713687</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2283,19 +2283,19 @@
         <v>13030</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7245</v>
+        <v>6554</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21728</v>
+        <v>22023</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01584029379025266</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008808120932550793</v>
+        <v>0.00796715311651641</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02641408642505379</v>
+        <v>0.02677285479408217</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -2304,19 +2304,19 @@
         <v>20534</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12958</v>
+        <v>12358</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31380</v>
+        <v>31399</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01282011774753987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008090170794324817</v>
+        <v>0.007715533587296233</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01959217973451071</v>
+        <v>0.0196037178419449</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>771594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>763772</v>
+        <v>763968</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775860</v>
+        <v>775690</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9903686060195445</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.980329119171756</v>
+        <v>0.9805794879328629</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9958441192148649</v>
+        <v>0.9956253425493211</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>744</v>
@@ -2354,19 +2354,19 @@
         <v>809548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>800850</v>
+        <v>800555</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815333</v>
+        <v>816024</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9841597062097474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9735859135749462</v>
+        <v>0.9732271452059178</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9911918790674492</v>
+        <v>0.9920328468834836</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1454</v>
@@ -2375,19 +2375,19 @@
         <v>1581142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1570296</v>
+        <v>1570277</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1588718</v>
+        <v>1589318</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9871798822524601</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.980407820265489</v>
+        <v>0.9803962821580551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9919098292056752</v>
+        <v>0.9922844664127034</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>39165</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27619</v>
+        <v>27750</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55431</v>
+        <v>53614</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01142913561301609</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008059799138195253</v>
+        <v>0.008098023121163835</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01617597474595156</v>
+        <v>0.01564549599607374</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>64</v>
@@ -2500,19 +2500,19 @@
         <v>71617</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55584</v>
+        <v>55302</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>90904</v>
+        <v>91415</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02014494967712189</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01563507143042243</v>
+        <v>0.01555557253733681</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02557017915098592</v>
+        <v>0.02571390034372019</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -2521,19 +2521,19 @@
         <v>110782</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>90900</v>
+        <v>91205</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>133959</v>
+        <v>134930</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01586713640480587</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01301943790997223</v>
+        <v>0.01306309214784829</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01918661199189271</v>
+        <v>0.01932570415121194</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3387614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3371348</v>
+        <v>3373165</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3399160</v>
+        <v>3399029</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9885708643869839</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9838240252540474</v>
+        <v>0.9843545040039265</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9919402008618046</v>
+        <v>0.9919019768788367</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3232</v>
@@ -2571,19 +2571,19 @@
         <v>3483481</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3464194</v>
+        <v>3463683</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3499514</v>
+        <v>3499796</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9798550503228781</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9744298208490141</v>
+        <v>0.9742860996562799</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9843649285695776</v>
+        <v>0.9844444274626631</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6405</v>
@@ -2592,19 +2592,19 @@
         <v>6871095</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6847918</v>
+        <v>6846947</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6890977</v>
+        <v>6890672</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9841328635951941</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9808133880081074</v>
+        <v>0.9806742958487883</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.986980562090028</v>
+        <v>0.9869369078521517</v>
       </c>
     </row>
     <row r="30">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4405</v>
+        <v>5573</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00295843495920939</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01499355396855161</v>
+        <v>0.01897082523478594</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2961,19 +2961,19 @@
         <v>6864</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2854</v>
+        <v>2926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12943</v>
+        <v>13421</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02377582892178824</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009887141199334494</v>
+        <v>0.01013506906605708</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04483295795242256</v>
+        <v>0.04648736650507976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2982,19 +2982,19 @@
         <v>7733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3262</v>
+        <v>3487</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14183</v>
+        <v>14452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01327674489613584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005600937086073324</v>
+        <v>0.005986702642505945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02435078139002137</v>
+        <v>0.02481226988126945</v>
       </c>
     </row>
     <row r="5">
@@ -3011,7 +3011,7 @@
         <v>292892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289356</v>
+        <v>288188</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -3020,7 +3020,7 @@
         <v>0.9970415650407906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9850064460314485</v>
+        <v>0.9810291747652148</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3032,19 +3032,19 @@
         <v>281839</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275760</v>
+        <v>275282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285849</v>
+        <v>285777</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9762241710782118</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9551670420475775</v>
+        <v>0.9535126334949204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9901128588006656</v>
+        <v>0.9898649309339429</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>535</v>
@@ -3053,19 +3053,19 @@
         <v>574731</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>568281</v>
+        <v>568012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>579202</v>
+        <v>578977</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9867232551038642</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9756492186099787</v>
+        <v>0.9751877301187307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9943990629139273</v>
+        <v>0.9940132973574941</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>4109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9339</v>
+        <v>10120</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008176859481683034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002041838225436568</v>
+        <v>0.00204033972226005</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01858315099661823</v>
+        <v>0.02013572117294518</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3178,19 +3178,19 @@
         <v>4479</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1154</v>
+        <v>1082</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10662</v>
+        <v>10574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008563278736565812</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002205516602479222</v>
+        <v>0.002067657531941866</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02038213968368997</v>
+        <v>0.02021409924489139</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -3199,19 +3199,19 @@
         <v>8589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4090</v>
+        <v>4163</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15942</v>
+        <v>16191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008373932444793888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003987536383634287</v>
+        <v>0.004058693960055072</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01554272484332889</v>
+        <v>0.0157859771912901</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>498466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493236</v>
+        <v>492455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501549</v>
+        <v>501550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.991823140518317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9814168490033818</v>
+        <v>0.979864278827055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979581617745634</v>
+        <v>0.99795966027774</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -3249,19 +3249,19 @@
         <v>518605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>512422</v>
+        <v>512510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521930</v>
+        <v>522002</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9914367212634342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9796178603163099</v>
+        <v>0.9797859007551082</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9977944833975209</v>
+        <v>0.9979323424680581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>951</v>
@@ -3270,19 +3270,19 @@
         <v>1017070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1009717</v>
+        <v>1009468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021569</v>
+        <v>1021496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9916260675552061</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9844572751566711</v>
+        <v>0.98421402280871</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9960124636163658</v>
+        <v>0.995941306039945</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>5281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1972</v>
+        <v>2047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10915</v>
+        <v>12157</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01657854208202535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006191129626650816</v>
+        <v>0.00642495228431829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03426201877617632</v>
+        <v>0.03816184083538085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3395,19 +3395,19 @@
         <v>12733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6256</v>
+        <v>6395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22984</v>
+        <v>23066</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03786145763111926</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01860120885933835</v>
+        <v>0.01901553134169602</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06834283995621422</v>
+        <v>0.06858536597276414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3416,19 +3416,19 @@
         <v>18014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10195</v>
+        <v>11067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29479</v>
+        <v>30097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02750833329723877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01556796218005</v>
+        <v>0.0168993902038982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04501544295948046</v>
+        <v>0.04595805666719525</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>313284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307650</v>
+        <v>306408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316593</v>
+        <v>316518</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9834214579179746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9657379812238237</v>
+        <v>0.9618381591646186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9938088703733496</v>
+        <v>0.9935750477156811</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>322</v>
@@ -3466,19 +3466,19 @@
         <v>323576</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313325</v>
+        <v>313243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330053</v>
+        <v>329914</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9621385423688807</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9316571600437856</v>
+        <v>0.9314146340272359</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9813987911406613</v>
+        <v>0.980984468658304</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>651</v>
@@ -3487,19 +3487,19 @@
         <v>636860</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>625395</v>
+        <v>624777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>644679</v>
+        <v>643807</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9724916667027612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9549845570405195</v>
+        <v>0.9540419433328043</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9844320378199499</v>
+        <v>0.9831006097961018</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>5626</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2051</v>
+        <v>2560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11194</v>
+        <v>12398</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01520723309845293</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005543780888033448</v>
+        <v>0.006918547598716271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03025773149509362</v>
+        <v>0.03351260242485631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3612,19 +3612,19 @@
         <v>11210</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5888</v>
+        <v>5877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21279</v>
+        <v>20892</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02894429659518656</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01520358013962385</v>
+        <v>0.01517386958153792</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05494473446852725</v>
+        <v>0.05394620855547969</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -3633,19 +3633,19 @@
         <v>16836</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9826</v>
+        <v>9649</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26350</v>
+        <v>26523</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02223285509586905</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01297584299405767</v>
+        <v>0.01274194829152011</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03479714763969924</v>
+        <v>0.0350249588641478</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>364338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358770</v>
+        <v>357566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367913</v>
+        <v>367404</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.984792766901547</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.969742268504907</v>
+        <v>0.966487397575145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9944562191119668</v>
+        <v>0.9930814524012838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>348</v>
@@ -3683,19 +3683,19 @@
         <v>376073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366004</v>
+        <v>366391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>381395</v>
+        <v>381406</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9710557034048134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9450552655314728</v>
+        <v>0.9460537914445201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9847964198603761</v>
+        <v>0.984826130418462</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>696</v>
@@ -3704,19 +3704,19 @@
         <v>740411</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730897</v>
+        <v>730724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>747421</v>
+        <v>747598</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.977767144904131</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9652028523603007</v>
+        <v>0.9649750411358522</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9870241570059423</v>
+        <v>0.9872580517084798</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>2858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7478</v>
+        <v>7511</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01353098050888723</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004122410895614333</v>
+        <v>0.004198149104096805</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03540133158409451</v>
+        <v>0.03556089863628093</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5507</v>
+        <v>4979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004486244661354696</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02519451782792724</v>
+        <v>0.02277600977493449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3850,19 +3850,19 @@
         <v>3839</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9329</v>
+        <v>9289</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008931108745881414</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002229745024442117</v>
+        <v>0.002280040297518849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02170477994197173</v>
+        <v>0.02161082111039046</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>208363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203743</v>
+        <v>203710</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210350</v>
+        <v>210334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9864690194911128</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.964598668415906</v>
+        <v>0.9644391013637191</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9958775891043857</v>
+        <v>0.9958018508959032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>222</v>
@@ -3900,7 +3900,7 @@
         <v>217606</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213080</v>
+        <v>213608</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -3909,7 +3909,7 @@
         <v>0.9955137553386453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9748054821720731</v>
+        <v>0.9772239902250656</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3921,19 +3921,19 @@
         <v>425969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420479</v>
+        <v>420519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428850</v>
+        <v>428828</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9910688912541186</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9782952200580289</v>
+        <v>0.9783891788896099</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9977702549755579</v>
+        <v>0.9977199597024812</v>
       </c>
     </row>
     <row r="18">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3816</v>
+        <v>3688</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003011992879054349</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01450187712481791</v>
+        <v>0.01401799152422557</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6427</v>
+        <v>7728</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004713950401205248</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02353303195389635</v>
+        <v>0.02829469154273569</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7528</v>
+        <v>6880</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003878828369519173</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01403820367396457</v>
+        <v>0.01283034491101054</v>
       </c>
     </row>
     <row r="20">
@@ -4096,7 +4096,7 @@
         <v>262330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259307</v>
+        <v>259435</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -4105,7 +4105,7 @@
         <v>0.9969880071209456</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9854981228751822</v>
+        <v>0.9859820084757743</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4117,7 +4117,7 @@
         <v>271828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266688</v>
+        <v>265387</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>273115</v>
@@ -4126,7 +4126,7 @@
         <v>0.9952860495987947</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9764669680461036</v>
+        <v>0.9717053084572642</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>534158</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>528710</v>
+        <v>529358</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>536238</v>
@@ -4147,7 +4147,7 @@
         <v>0.9961211716304809</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9859617963260356</v>
+        <v>0.9871696550889911</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4242,19 +4242,19 @@
         <v>4676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11017</v>
+        <v>10912</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007121347102363434</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002726200758514614</v>
+        <v>0.00271586814006572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01677952166310842</v>
+        <v>0.01661993148705693</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4263,19 +4263,19 @@
         <v>15978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9499</v>
+        <v>8682</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27058</v>
+        <v>25072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02311298533370386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01374083393367048</v>
+        <v>0.01255838879334423</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03914132331083259</v>
+        <v>0.03626809794837706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4284,19 +4284,19 @@
         <v>20653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12653</v>
+        <v>12926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31716</v>
+        <v>31108</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01532322949536939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00938743920859913</v>
+        <v>0.009590152382558573</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02353098057181354</v>
+        <v>0.02307954216516142</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>651882</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>645541</v>
+        <v>645646</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654768</v>
+        <v>654775</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9928786528976365</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9832204783368915</v>
+        <v>0.983380068512943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9972737992414854</v>
+        <v>0.9972841318599344</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>632</v>
@@ -4334,19 +4334,19 @@
         <v>675316</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>664236</v>
+        <v>666222</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>681795</v>
+        <v>682612</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9768870146662961</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9608586766891677</v>
+        <v>0.9637319020516232</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9862591660663297</v>
+        <v>0.9874416112066561</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1207</v>
@@ -4355,19 +4355,19 @@
         <v>1327199</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1316136</v>
+        <v>1316744</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1335199</v>
+        <v>1334926</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9846767705046306</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9764690194281865</v>
+        <v>0.9769204578348385</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9906125607914013</v>
+        <v>0.9904098476174414</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>5522</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12968</v>
+        <v>12245</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007092345876277661</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002383334967609303</v>
+        <v>0.002373607095598229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01665563929585917</v>
+        <v>0.01572718080500528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -4480,19 +4480,19 @@
         <v>17618</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11063</v>
+        <v>10660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27907</v>
+        <v>28258</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0213251791459735</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01339112507653512</v>
+        <v>0.01290350001277701</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0337786974890051</v>
+        <v>0.0342039530556382</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -4501,19 +4501,19 @@
         <v>23140</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14452</v>
+        <v>14812</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34230</v>
+        <v>34507</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01441977831197502</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009005718418795253</v>
+        <v>0.009230335560118168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02133031327340974</v>
+        <v>0.02150285632540595</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>773061</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>765615</v>
+        <v>766338</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776727</v>
+        <v>776735</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9929076541237224</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9833443607041406</v>
+        <v>0.9842728191949947</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976166650323907</v>
+        <v>0.9976263929044017</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>739</v>
@@ -4551,19 +4551,19 @@
         <v>808549</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>798260</v>
+        <v>797909</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815104</v>
+        <v>815507</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9786748208540265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9662213025109948</v>
+        <v>0.9657960469443618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9866088749234648</v>
+        <v>0.987096499987223</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1484</v>
@@ -4572,19 +4572,19 @@
         <v>1581610</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1570520</v>
+        <v>1570243</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1590298</v>
+        <v>1589938</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9855802216880249</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9786696867265903</v>
+        <v>0.9784971436745935</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9909942815812048</v>
+        <v>0.9907696644398818</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>29734</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19942</v>
+        <v>20409</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41177</v>
+        <v>41854</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008759891864754007</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005875129054632713</v>
+        <v>0.006012663502166194</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01213118422083618</v>
+        <v>0.01233062206713025</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>63</v>
@@ -4697,19 +4697,19 @@
         <v>71150</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55028</v>
+        <v>55157</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>91385</v>
+        <v>90289</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02007321760088127</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01552466136360415</v>
+        <v>0.0155609749644652</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02578182698676238</v>
+        <v>0.02547279040303148</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>94</v>
@@ -4718,19 +4718,19 @@
         <v>100884</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>80781</v>
+        <v>82015</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>121736</v>
+        <v>123783</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01453899265530997</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01164178854685763</v>
+        <v>0.01181961781437155</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01754400291887724</v>
+        <v>0.01783899248062969</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>3364616</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3353173</v>
+        <v>3352496</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3374408</v>
+        <v>3373941</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.991240108135246</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9878688157791637</v>
+        <v>0.9876693779328696</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9941248709453673</v>
+        <v>0.9939873364978338</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3275</v>
@@ -4768,19 +4768,19 @@
         <v>3473392</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3453157</v>
+        <v>3454253</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3489514</v>
+        <v>3489385</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9799267823991187</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9742181730132374</v>
+        <v>0.9745272095969685</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9844753386363957</v>
+        <v>0.9844390250355347</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6475</v>
@@ -4789,19 +4789,19 @@
         <v>6838008</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6817156</v>
+        <v>6815109</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6858111</v>
+        <v>6856877</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.98546100734469</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.982455997081123</v>
+        <v>0.9821610075193704</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9883582114531425</v>
+        <v>0.9881803821856285</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>3088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>773</v>
+        <v>862</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7620</v>
+        <v>7723</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009683598719753488</v>
+        <v>0.009683598719753489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002423136517303737</v>
+        <v>0.002701944760331577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02389761014290115</v>
+        <v>0.02422137989377391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5158,19 +5158,19 @@
         <v>3801</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1864</v>
+        <v>1478</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7274</v>
+        <v>7077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01202500727678267</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005898454741307883</v>
+        <v>0.004676978508600999</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02301449364154216</v>
+        <v>0.0223928194760471</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -5179,19 +5179,19 @@
         <v>6888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3709</v>
+        <v>3531</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11747</v>
+        <v>12035</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.010849168398579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005841760630105725</v>
+        <v>0.005561474154406764</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01850202935029819</v>
+        <v>0.01895579483613893</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>315757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>311225</v>
+        <v>311122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318072</v>
+        <v>317983</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9903164012802464</v>
+        <v>0.9903164012802466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9761023898570991</v>
+        <v>0.9757786201062258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9975768634826964</v>
+        <v>0.9972980552396683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>530</v>
@@ -5229,19 +5229,19 @@
         <v>312260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308787</v>
+        <v>308984</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314197</v>
+        <v>314583</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9879749927232172</v>
+        <v>0.9879749927232174</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9769855063584578</v>
+        <v>0.9776071805239531</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9941015452586922</v>
+        <v>0.9953230214913991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>857</v>
@@ -5250,19 +5250,19 @@
         <v>628018</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623159</v>
+        <v>622871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>631197</v>
+        <v>631375</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9891508316014211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9814979706497018</v>
+        <v>0.981044205163861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9941582393698943</v>
+        <v>0.9944385258455931</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>10345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4763</v>
+        <v>4695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19399</v>
+        <v>19420</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01956697409945532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009008441356188418</v>
+        <v>0.008879642048340373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03669011808637784</v>
+        <v>0.03673122874232839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5375,19 +5375,19 @@
         <v>8108</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4861</v>
+        <v>4224</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14607</v>
+        <v>13774</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01485435970402834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008906715120780236</v>
+        <v>0.007739621931737346</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02676134292334141</v>
+        <v>0.02523588958471535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -5396,19 +5396,19 @@
         <v>18453</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11493</v>
+        <v>11799</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27631</v>
+        <v>27919</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01717318773027737</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0106955123592266</v>
+        <v>0.01098051184238982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02571487512072381</v>
+        <v>0.02598288616522503</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>518373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>509319</v>
+        <v>509298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>523955</v>
+        <v>524023</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9804330259005447</v>
+        <v>0.9804330259005446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.963309881913622</v>
+        <v>0.9632687712576715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9909915586438116</v>
+        <v>0.9911203579516594</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>704</v>
@@ -5446,19 +5446,19 @@
         <v>537701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>531202</v>
+        <v>532035</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>540948</v>
+        <v>541585</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9851456402959716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9732386570766586</v>
+        <v>0.9747641104152848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9910932848792198</v>
+        <v>0.9922603780682627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1075</v>
@@ -5467,19 +5467,19 @@
         <v>1056075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1046897</v>
+        <v>1046609</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1063035</v>
+        <v>1062729</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9828268122697226</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9742851248792763</v>
+        <v>0.974017113834775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9893044876407734</v>
+        <v>0.9890194881576101</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>6431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3135</v>
+        <v>3576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11233</v>
+        <v>12136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02035213356426063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009921736289850885</v>
+        <v>0.0113180658208072</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03554915907522148</v>
+        <v>0.03840448733111049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -5592,19 +5592,19 @@
         <v>9590</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5909</v>
+        <v>5698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15807</v>
+        <v>14672</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02691065029457312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01658111476203255</v>
+        <v>0.0159890038176384</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04435492982584577</v>
+        <v>0.04117036426397993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -5613,19 +5613,19 @@
         <v>16022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10935</v>
+        <v>10803</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23451</v>
+        <v>22783</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02382836897880503</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01626314065550815</v>
+        <v>0.01606676465949553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03487735968856681</v>
+        <v>0.03388420109992313</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>309562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304760</v>
+        <v>303857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312858</v>
+        <v>312417</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9796478664357393</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9644508409247785</v>
+        <v>0.9615955126688894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9900782637101491</v>
+        <v>0.9886819341791928</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>519</v>
@@ -5663,19 +5663,19 @@
         <v>346791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>340574</v>
+        <v>341709</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>350472</v>
+        <v>350683</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9730893497054269</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9556450701741543</v>
+        <v>0.9588296357360195</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9834188852379675</v>
+        <v>0.9840109961823608</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>869</v>
@@ -5684,19 +5684,19 @@
         <v>656353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648924</v>
+        <v>649592</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661440</v>
+        <v>661572</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9761716310211951</v>
+        <v>0.9761716310211949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9651226403114324</v>
+        <v>0.9661157989000769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9837368593444918</v>
+        <v>0.9839332353405047</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>7320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3525</v>
+        <v>3504</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14586</v>
+        <v>13918</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01961609755790289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009447247157843969</v>
+        <v>0.009389564678591417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03908944378877915</v>
+        <v>0.03729943666035455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -5809,19 +5809,19 @@
         <v>12212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8369</v>
+        <v>7931</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18821</v>
+        <v>18338</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02894086884312546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01983370029358091</v>
+        <v>0.01879619246071158</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04460437338674426</v>
+        <v>0.04346016262492035</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -5830,19 +5830,19 @@
         <v>19532</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13513</v>
+        <v>13239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28133</v>
+        <v>27802</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02456473394065987</v>
+        <v>0.02456473394065986</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01699521713853074</v>
+        <v>0.01665066315669864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03538308442087432</v>
+        <v>0.03496677550773351</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>365825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358559</v>
+        <v>359227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369620</v>
+        <v>369641</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9803839024420971</v>
+        <v>0.9803839024420973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9609105562112213</v>
+        <v>0.9627005633396455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9905527528421565</v>
+        <v>0.9906104353214087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>576</v>
@@ -5880,19 +5880,19 @@
         <v>409749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>403140</v>
+        <v>403623</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>413592</v>
+        <v>414030</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9710591311568746</v>
+        <v>0.9710591311568747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9553956266132557</v>
+        <v>0.9565398373750797</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.980166299706419</v>
+        <v>0.9812038075392886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>859</v>
@@ -5901,19 +5901,19 @@
         <v>775575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>766974</v>
+        <v>767305</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>781594</v>
+        <v>781868</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9754352660593402</v>
+        <v>0.9754352660593399</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9646169155791257</v>
+        <v>0.9650332244922665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9830047828614695</v>
+        <v>0.9833493368433012</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>4653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2059</v>
+        <v>2262</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8978</v>
+        <v>9042</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02262647610320235</v>
+        <v>0.02262647610320236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01000936791406487</v>
+        <v>0.01099675439616084</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04365412163778978</v>
+        <v>0.04396573848731297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6026,19 +6026,19 @@
         <v>7677</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4956</v>
+        <v>4895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11710</v>
+        <v>11560</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03390537122210063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02188736122492646</v>
+        <v>0.02162090468634256</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05172100464627594</v>
+        <v>0.05105553522365786</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -6047,19 +6047,19 @@
         <v>12330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8607</v>
+        <v>8043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17543</v>
+        <v>17745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02853675009403477</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01992078276776484</v>
+        <v>0.0186137687409295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0406001948831087</v>
+        <v>0.04106787018965134</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>201012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196687</v>
+        <v>196623</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203606</v>
+        <v>203403</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9773735238967974</v>
+        <v>0.9773735238967977</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.956345878362211</v>
+        <v>0.9560342615126858</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9899906320859355</v>
+        <v>0.989003245603839</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>470</v>
@@ -6097,19 +6097,19 @@
         <v>218738</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214705</v>
+        <v>214855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221459</v>
+        <v>221520</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9660946287778994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.948278995353724</v>
+        <v>0.9489444647763424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9781126387750734</v>
+        <v>0.9783790953136577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>741</v>
@@ -6118,19 +6118,19 @@
         <v>419750</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414537</v>
+        <v>414335</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423473</v>
+        <v>424037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9714632499059652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9593998051168913</v>
+        <v>0.958932129810349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9800792172322352</v>
+        <v>0.9813862312590705</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>7754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4450</v>
+        <v>4308</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11973</v>
+        <v>12429</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02864366634028158</v>
+        <v>0.02864366634028157</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01643702799035249</v>
+        <v>0.01591553228697364</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04422899826031677</v>
+        <v>0.04591410512990311</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6243,19 +6243,19 @@
         <v>5754</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2846</v>
+        <v>3234</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9890</v>
+        <v>9838</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02187192762968976</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01081786144651756</v>
+        <v>0.0122900940337256</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03759095676437488</v>
+        <v>0.03739323557653836</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -6264,19 +6264,19 @@
         <v>13509</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9191</v>
+        <v>8901</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19893</v>
+        <v>19833</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0253060521711794</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01721712414932098</v>
+        <v>0.01667543550495055</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0372659131915116</v>
+        <v>0.03715333330982198</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>262953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258734</v>
+        <v>258278</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266257</v>
+        <v>266399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9713563336597183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9557710017396833</v>
+        <v>0.9540858948700965</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9835629720096475</v>
+        <v>0.9840844677130256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>447</v>
@@ -6314,19 +6314,19 @@
         <v>257345</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>253209</v>
+        <v>253261</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260253</v>
+        <v>259865</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9781280723703102</v>
+        <v>0.9781280723703103</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9624090432356252</v>
+        <v>0.9626067644234616</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9891821385534822</v>
+        <v>0.9877099059662743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>803</v>
@@ -6335,19 +6335,19 @@
         <v>520297</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513913</v>
+        <v>513973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>524615</v>
+        <v>524905</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9746939478288208</v>
+        <v>0.9746939478288207</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9627340868084887</v>
+        <v>0.9628466666901779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9827828758506791</v>
+        <v>0.9833245644950497</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>18458</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11452</v>
+        <v>11967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28152</v>
+        <v>28592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02583282639808008</v>
+        <v>0.02583282639808007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01602791993735796</v>
+        <v>0.01674773396309199</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03939993643512409</v>
+        <v>0.04001477341195382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -6460,19 +6460,19 @@
         <v>12292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7553</v>
+        <v>7351</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19019</v>
+        <v>19125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01599344737352047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009827030455261296</v>
+        <v>0.009564449325543274</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02474589257070011</v>
+        <v>0.02488420005062078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -6481,19 +6481,19 @@
         <v>30750</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21625</v>
+        <v>21709</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42040</v>
+        <v>42365</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0207338929586753</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0145809348903774</v>
+        <v>0.01463776096048007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02834654240831589</v>
+        <v>0.02856564791606419</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>696068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>686374</v>
+        <v>685934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>703074</v>
+        <v>702559</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.97416717360192</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.960600063564876</v>
+        <v>0.9599852265880463</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9839720800626421</v>
+        <v>0.983252266036908</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>937</v>
@@ -6531,19 +6531,19 @@
         <v>756269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>749542</v>
+        <v>749436</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>761008</v>
+        <v>761210</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9840065526264797</v>
+        <v>0.9840065526264795</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9752541074293</v>
+        <v>0.9751157999493791</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9901729695447388</v>
+        <v>0.9904355506744567</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1511</v>
@@ -6552,19 +6552,19 @@
         <v>1452337</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1441047</v>
+        <v>1440722</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1461462</v>
+        <v>1461378</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9792661070413248</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9716534575916842</v>
+        <v>0.971434352083936</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9854190651096224</v>
+        <v>0.98536223903952</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>16458</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9694</v>
+        <v>10316</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25635</v>
+        <v>26945</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02063919865593909</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01215734746099389</v>
+        <v>0.01293663980421731</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03214801042277503</v>
+        <v>0.03379127455542081</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -6677,19 +6677,19 @@
         <v>25384</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18349</v>
+        <v>18192</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33587</v>
+        <v>34020</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03056051722709486</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02209081100738047</v>
+        <v>0.02190141106125064</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04043715757770027</v>
+        <v>0.0409572986896334</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -6698,19 +6698,19 @@
         <v>41842</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32752</v>
+        <v>31585</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55158</v>
+        <v>54272</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02570103462773758</v>
+        <v>0.02570103462773759</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02011772732579853</v>
+        <v>0.01940082873040299</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03388073068391723</v>
+        <v>0.03333650513823447</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>780946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>771769</v>
+        <v>770459</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>787710</v>
+        <v>787088</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.979360801344061</v>
+        <v>0.9793608013440608</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.967851989577225</v>
+        <v>0.96620872544458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9878426525390062</v>
+        <v>0.9870633601957828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1023</v>
@@ -6748,19 +6748,19 @@
         <v>805225</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>797022</v>
+        <v>796589</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>812260</v>
+        <v>812417</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9694394827729053</v>
+        <v>0.969439482772905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9595628424222996</v>
+        <v>0.9590427013103665</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9779091889926195</v>
+        <v>0.9780985889387492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1764</v>
@@ -6769,19 +6769,19 @@
         <v>1586171</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1572855</v>
+        <v>1573741</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1595261</v>
+        <v>1596428</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9742989653722622</v>
+        <v>0.9742989653722626</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9661192693160828</v>
+        <v>0.9666634948617656</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9798822726742014</v>
+        <v>0.9805991712695971</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>74507</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58964</v>
+        <v>60378</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>89690</v>
+        <v>91361</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0211367975075312</v>
+        <v>0.02113679750753121</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01672744122566788</v>
+        <v>0.01712862388300899</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02544391999231321</v>
+        <v>0.02591787712276243</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>148</v>
@@ -6894,19 +6894,19 @@
         <v>84818</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73122</v>
+        <v>72344</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101369</v>
+        <v>101757</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02274603163368115</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01960948639670532</v>
+        <v>0.01940096895507384</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02718458507051721</v>
+        <v>0.02728888186621466</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>243</v>
@@ -6915,19 +6915,19 @@
         <v>159325</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>136971</v>
+        <v>139938</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>180038</v>
+        <v>182774</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02196403072294269</v>
+        <v>0.02196403072294268</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01888243783869211</v>
+        <v>0.01929137887073013</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02481949213045919</v>
+        <v>0.02519666334247721</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>3450497</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3435314</v>
+        <v>3433643</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3466040</v>
+        <v>3464626</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9788632024924688</v>
+        <v>0.9788632024924689</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9745560800076868</v>
+        <v>0.9740821228772377</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9832725587743323</v>
+        <v>0.9828713761169912</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5206</v>
@@ -6965,19 +6965,19 @@
         <v>3644079</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3627528</v>
+        <v>3627140</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3655775</v>
+        <v>3656553</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9772539683663188</v>
+        <v>0.9772539683663189</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9728154149294823</v>
+        <v>0.9727111181337846</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9803905136032944</v>
+        <v>0.9805990310449261</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8479</v>
@@ -6986,19 +6986,19 @@
         <v>7094576</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7073863</v>
+        <v>7071127</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7116930</v>
+        <v>7113963</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9780359692770573</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9751805078695408</v>
+        <v>0.9748033366575227</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9811175621613085</v>
+        <v>0.9807086211292697</v>
       </c>
     </row>
     <row r="30">
